--- a/REGULAR/OJT/NEW DONE/MONTEALEGRE, CHARLIE JR..xlsx
+++ b/REGULAR/OJT/NEW DONE/MONTEALEGRE, CHARLIE JR..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E872C-10A9-4016-BC23-04AD1D7701F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
   <si>
     <t>PERIOD</t>
   </si>
@@ -383,12 +382,15 @@
   </si>
   <si>
     <t>9/22,23,26-28/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1261,7 +1263,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,7 +1306,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1370,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1430,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1496,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1559,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1657,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1716,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1781,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,7 +1824,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,7 +1899,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,7 +2085,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2151,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2209,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,7 +2275,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2331,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2406,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2449,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,7 +2515,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2571,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,7 +2669,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2730,7 +2732,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,25 +2798,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K184" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K185" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2826,13 +2828,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2841,14 +2843,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3152,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3162,7 +3164,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3170,34 +3172,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K184"/>
+  <dimension ref="A2:K185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A151" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A167" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
+      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3218,7 +3220,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3238,7 +3240,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3260,7 +3262,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3268,7 +3270,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3281,7 +3283,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -3298,7 +3300,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3333,7 +3335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3342,7 +3344,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.181000000000012</v>
+        <v>81.431000000000012</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3352,12 +3354,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>79.170000000000016</v>
+        <v>94.420000000000016</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3379,7 +3381,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>40634</v>
       </c>
@@ -3399,9 +3401,8 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
-        <f>EDATE(A11,1)</f>
         <v>40664</v>
       </c>
       <c r="B12" s="20"/>
@@ -3420,9 +3421,8 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
-        <f t="shared" ref="A13:A19" si="0">EDATE(A12,1)</f>
         <v>40695</v>
       </c>
       <c r="B13" s="20"/>
@@ -3441,9 +3441,8 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
-        <f t="shared" si="0"/>
         <v>40725</v>
       </c>
       <c r="B14" s="20"/>
@@ -3462,9 +3461,8 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
-        <f t="shared" si="0"/>
         <v>40756</v>
       </c>
       <c r="B15" s="20"/>
@@ -3483,9 +3481,8 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
-        <f t="shared" si="0"/>
         <v>40787</v>
       </c>
       <c r="B16" s="15"/>
@@ -3504,9 +3501,8 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
-        <f t="shared" si="0"/>
         <v>40817</v>
       </c>
       <c r="B17" s="20"/>
@@ -3525,9 +3521,8 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
-        <f t="shared" si="0"/>
         <v>40848</v>
       </c>
       <c r="B18" s="20"/>
@@ -3546,9 +3541,8 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
-        <f t="shared" si="0"/>
         <v>40878</v>
       </c>
       <c r="B19" s="20"/>
@@ -3567,7 +3561,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>44</v>
       </c>
@@ -3585,9 +3579,8 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
-        <f>EDATE(A19,1)</f>
         <v>40909</v>
       </c>
       <c r="B21" s="20"/>
@@ -3606,9 +3599,8 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
-        <f>EDATE(A21,1)</f>
         <v>40940</v>
       </c>
       <c r="B22" s="20"/>
@@ -3627,9 +3619,8 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
-        <f t="shared" ref="A23:A32" si="1">EDATE(A22,1)</f>
         <v>40969</v>
       </c>
       <c r="B23" s="20"/>
@@ -3648,9 +3639,8 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
-        <f t="shared" si="1"/>
         <v>41000</v>
       </c>
       <c r="B24" s="20"/>
@@ -3669,9 +3659,8 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <f t="shared" si="1"/>
         <v>41030</v>
       </c>
       <c r="B25" s="20"/>
@@ -3690,9 +3679,8 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <f t="shared" si="1"/>
         <v>41061</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -3717,9 +3705,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <f t="shared" si="1"/>
         <v>41091</v>
       </c>
       <c r="B27" s="20"/>
@@ -3738,9 +3725,8 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <f t="shared" si="1"/>
         <v>41122</v>
       </c>
       <c r="B28" s="20"/>
@@ -3759,9 +3745,8 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <f t="shared" si="1"/>
         <v>41153</v>
       </c>
       <c r="B29" s="20"/>
@@ -3780,9 +3765,8 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <f t="shared" si="1"/>
         <v>41183</v>
       </c>
       <c r="B30" s="20"/>
@@ -3801,9 +3785,8 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <f>EDATE(A30,1)</f>
         <v>41214</v>
       </c>
       <c r="B31" s="20"/>
@@ -3822,9 +3805,8 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <f t="shared" si="1"/>
         <v>41244</v>
       </c>
       <c r="B32" s="20"/>
@@ -3843,7 +3825,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>47</v>
       </c>
@@ -3861,9 +3843,8 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <f>EDATE(A32,1)</f>
         <v>41275</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -3888,9 +3869,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <f>EDATE(A34,1)</f>
         <v>41306</v>
       </c>
       <c r="B35" s="20"/>
@@ -3909,9 +3889,8 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <f t="shared" ref="A36:A44" si="2">EDATE(A35,1)</f>
         <v>41334</v>
       </c>
       <c r="B36" s="20"/>
@@ -3930,9 +3909,8 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <f t="shared" si="2"/>
         <v>41365</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -3955,9 +3933,8 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <f t="shared" si="2"/>
         <v>41395</v>
       </c>
       <c r="B38" s="20"/>
@@ -3976,9 +3953,8 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <f t="shared" si="2"/>
         <v>41426</v>
       </c>
       <c r="B39" s="20"/>
@@ -3997,9 +3973,8 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <f t="shared" si="2"/>
         <v>41456</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -4024,9 +3999,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <f t="shared" si="2"/>
         <v>41487</v>
       </c>
       <c r="B41" s="20"/>
@@ -4045,9 +4019,8 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <f t="shared" si="2"/>
         <v>41518</v>
       </c>
       <c r="B42" s="20"/>
@@ -4066,9 +4039,8 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <f t="shared" si="2"/>
         <v>41548</v>
       </c>
       <c r="B43" s="20"/>
@@ -4087,9 +4059,8 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <f t="shared" si="2"/>
         <v>41579</v>
       </c>
       <c r="B44" s="20"/>
@@ -4108,9 +4079,8 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <f>EDATE(A44,1)</f>
         <v>41609</v>
       </c>
       <c r="B45" s="20"/>
@@ -4129,7 +4099,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>53</v>
       </c>
@@ -4147,9 +4117,8 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <f>EDATE(A45,1)</f>
         <v>41640</v>
       </c>
       <c r="B47" s="20"/>
@@ -4168,9 +4137,8 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <f>EDATE(A47,1)</f>
         <v>41671</v>
       </c>
       <c r="B48" s="20"/>
@@ -4189,9 +4157,8 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <f t="shared" ref="A49:A57" si="3">EDATE(A48,1)</f>
         <v>41699</v>
       </c>
       <c r="B49" s="20"/>
@@ -4210,9 +4177,8 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <f t="shared" si="3"/>
         <v>41730</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -4237,9 +4203,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <f t="shared" si="3"/>
         <v>41760</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -4262,9 +4227,8 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <f t="shared" si="3"/>
         <v>41791</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -4287,9 +4251,8 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <f t="shared" si="3"/>
         <v>41821</v>
       </c>
       <c r="B53" s="20"/>
@@ -4308,9 +4271,8 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <f t="shared" si="3"/>
         <v>41852</v>
       </c>
       <c r="B54" s="20"/>
@@ -4329,9 +4291,8 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <f t="shared" si="3"/>
         <v>41883</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -4354,9 +4315,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <f t="shared" si="3"/>
         <v>41913</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -4381,9 +4341,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <f t="shared" si="3"/>
         <v>41944</v>
       </c>
       <c r="B57" s="20"/>
@@ -4404,9 +4363,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <f>EDATE(A57,1)</f>
         <v>41974</v>
       </c>
       <c r="B58" s="20"/>
@@ -4425,7 +4383,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>63</v>
       </c>
@@ -4443,9 +4401,8 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <f>EDATE(A58,1)</f>
         <v>42005</v>
       </c>
       <c r="B60" s="20" t="s">
@@ -4468,9 +4425,8 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <f>EDATE(A60,1)</f>
         <v>42036</v>
       </c>
       <c r="B61" s="20"/>
@@ -4489,9 +4445,8 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <f t="shared" ref="A62:A72" si="4">EDATE(A61,1)</f>
         <v>42064</v>
       </c>
       <c r="B62" s="20"/>
@@ -4510,9 +4465,8 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <f t="shared" si="4"/>
         <v>42095</v>
       </c>
       <c r="B63" s="20" t="s">
@@ -4539,7 +4493,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>68</v>
@@ -4561,9 +4515,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <f>EDATE(A63,1)</f>
         <v>42125</v>
       </c>
       <c r="B65" s="20"/>
@@ -4582,9 +4535,8 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <f t="shared" si="4"/>
         <v>42156</v>
       </c>
       <c r="B66" s="20" t="s">
@@ -4609,9 +4561,8 @@
         <v>42174</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <f t="shared" si="4"/>
         <v>42186</v>
       </c>
       <c r="B67" s="20"/>
@@ -4630,9 +4581,8 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <f t="shared" si="4"/>
         <v>42217</v>
       </c>
       <c r="B68" s="20"/>
@@ -4651,9 +4601,8 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <f t="shared" si="4"/>
         <v>42248</v>
       </c>
       <c r="B69" s="20"/>
@@ -4672,9 +4621,8 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <f t="shared" si="4"/>
         <v>42278</v>
       </c>
       <c r="B70" s="20"/>
@@ -4693,9 +4641,8 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <f>EDATE(A70,1)</f>
         <v>42309</v>
       </c>
       <c r="B71" s="20"/>
@@ -4714,9 +4661,8 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <f t="shared" si="4"/>
         <v>42339</v>
       </c>
       <c r="B72" s="20"/>
@@ -4735,7 +4681,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>72</v>
       </c>
@@ -4753,9 +4699,8 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <f>EDATE(A72,1)</f>
         <v>42370</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -4780,7 +4725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>71</v>
@@ -4802,7 +4747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>73</v>
@@ -4824,9 +4769,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <f>EDATE(A74,1)</f>
         <v>42401</v>
       </c>
       <c r="B77" s="20" t="s">
@@ -4851,9 +4795,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <f t="shared" ref="A78:A87" si="5">EDATE(A77,1)</f>
         <v>42430</v>
       </c>
       <c r="B78" s="20" t="s">
@@ -4880,9 +4823,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <f t="shared" si="5"/>
         <v>42461</v>
       </c>
       <c r="B79" s="20"/>
@@ -4901,9 +4843,8 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <f t="shared" si="5"/>
         <v>42491</v>
       </c>
       <c r="B80" s="20"/>
@@ -4922,9 +4863,8 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <f t="shared" si="5"/>
         <v>42522</v>
       </c>
       <c r="B81" s="20" t="s">
@@ -4949,9 +4889,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <f t="shared" si="5"/>
         <v>42552</v>
       </c>
       <c r="B82" s="20"/>
@@ -4970,9 +4909,8 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <f t="shared" si="5"/>
         <v>42583</v>
       </c>
       <c r="B83" s="20"/>
@@ -4991,9 +4929,8 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <f t="shared" si="5"/>
         <v>42614</v>
       </c>
       <c r="B84" s="20" t="s">
@@ -5018,9 +4955,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <f t="shared" si="5"/>
         <v>42644</v>
       </c>
       <c r="B85" s="20"/>
@@ -5039,9 +4975,8 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <f>EDATE(A85,1)</f>
         <v>42675</v>
       </c>
       <c r="B86" s="20"/>
@@ -5060,9 +4995,8 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <f t="shared" si="5"/>
         <v>42705</v>
       </c>
       <c r="B87" s="20"/>
@@ -5081,7 +5015,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>84</v>
       </c>
@@ -5099,9 +5033,8 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <f>EDATE(A87,1)</f>
         <v>42736</v>
       </c>
       <c r="B89" s="20"/>
@@ -5120,9 +5053,8 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <f>EDATE(A89,1)</f>
         <v>42767</v>
       </c>
       <c r="B90" s="20" t="s">
@@ -5145,9 +5077,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <f t="shared" ref="A91:A99" si="6">EDATE(A90,1)</f>
         <v>42795</v>
       </c>
       <c r="B91" s="20"/>
@@ -5166,9 +5097,8 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <f t="shared" si="6"/>
         <v>42826</v>
       </c>
       <c r="B92" s="20"/>
@@ -5187,9 +5117,8 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <f t="shared" si="6"/>
         <v>42856</v>
       </c>
       <c r="B93" s="20"/>
@@ -5208,9 +5137,8 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <f t="shared" si="6"/>
         <v>42887</v>
       </c>
       <c r="B94" s="20"/>
@@ -5229,9 +5157,8 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <f t="shared" si="6"/>
         <v>42917</v>
       </c>
       <c r="B95" s="20" t="s">
@@ -5256,9 +5183,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <f>EDATE(A95,1)</f>
         <v>42948</v>
       </c>
       <c r="B96" s="20"/>
@@ -5277,9 +5203,8 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <f t="shared" si="6"/>
         <v>42979</v>
       </c>
       <c r="B97" s="20" t="s">
@@ -5304,9 +5229,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <f t="shared" si="6"/>
         <v>43009</v>
       </c>
       <c r="B98" s="20"/>
@@ -5325,9 +5249,8 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <f t="shared" si="6"/>
         <v>43040</v>
       </c>
       <c r="B99" s="20"/>
@@ -5346,9 +5269,8 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <f>EDATE(A99,1)</f>
         <v>43070</v>
       </c>
       <c r="B100" s="20" t="s">
@@ -5371,7 +5293,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>92</v>
       </c>
@@ -5389,9 +5311,8 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <f>EDATE(A100,1)</f>
         <v>43101</v>
       </c>
       <c r="B102" s="20"/>
@@ -5410,9 +5331,8 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <f>EDATE(A102,1)</f>
         <v>43132</v>
       </c>
       <c r="B103" s="20"/>
@@ -5431,9 +5351,8 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <f t="shared" ref="A104:A116" si="7">EDATE(A103,1)</f>
         <v>43160</v>
       </c>
       <c r="B104" s="20" t="s">
@@ -5458,9 +5377,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <f t="shared" si="7"/>
         <v>43191</v>
       </c>
       <c r="B105" s="20" t="s">
@@ -5485,7 +5403,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>51</v>
@@ -5507,7 +5425,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>96</v>
@@ -5527,9 +5445,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <f>EDATE(A105,1)</f>
         <v>43221</v>
       </c>
       <c r="B108" s="20"/>
@@ -5548,9 +5465,8 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <f t="shared" si="7"/>
         <v>43252</v>
       </c>
       <c r="B109" s="20" t="s">
@@ -5575,7 +5491,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>65</v>
@@ -5597,9 +5513,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <f>EDATE(A109,1)</f>
         <v>43282</v>
       </c>
       <c r="B111" s="20"/>
@@ -5620,9 +5535,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <f t="shared" si="7"/>
         <v>43313</v>
       </c>
       <c r="B112" s="20"/>
@@ -5641,9 +5555,8 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <f t="shared" si="7"/>
         <v>43344</v>
       </c>
       <c r="B113" s="20"/>
@@ -5662,9 +5575,8 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <f t="shared" si="7"/>
         <v>43374</v>
       </c>
       <c r="B114" s="20"/>
@@ -5683,9 +5595,8 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <f>EDATE(A114,1)</f>
         <v>43405</v>
       </c>
       <c r="B115" s="20"/>
@@ -5704,9 +5615,8 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <f t="shared" si="7"/>
         <v>43435</v>
       </c>
       <c r="B116" s="20"/>
@@ -5725,7 +5635,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
         <v>102</v>
       </c>
@@ -5743,9 +5653,8 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <f>EDATE(A116,1)</f>
         <v>43466</v>
       </c>
       <c r="B118" s="20"/>
@@ -5764,9 +5673,8 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <f>EDATE(A118,1)</f>
         <v>43497</v>
       </c>
       <c r="B119" s="20"/>
@@ -5785,9 +5693,8 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <f t="shared" ref="A120:A129" si="8">EDATE(A119,1)</f>
         <v>43525</v>
       </c>
       <c r="B120" s="20"/>
@@ -5806,9 +5713,8 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <f t="shared" si="8"/>
         <v>43556</v>
       </c>
       <c r="B121" s="20"/>
@@ -5827,9 +5733,8 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <f t="shared" si="8"/>
         <v>43586</v>
       </c>
       <c r="B122" s="20"/>
@@ -5848,9 +5753,8 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <f t="shared" si="8"/>
         <v>43617</v>
       </c>
       <c r="B123" s="20" t="s">
@@ -5875,9 +5779,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <f t="shared" si="8"/>
         <v>43647</v>
       </c>
       <c r="B124" s="20"/>
@@ -5896,9 +5799,8 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <f t="shared" si="8"/>
         <v>43678</v>
       </c>
       <c r="B125" s="20"/>
@@ -5917,9 +5819,8 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <f t="shared" si="8"/>
         <v>43709</v>
       </c>
       <c r="B126" s="20"/>
@@ -5938,9 +5839,8 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <f t="shared" si="8"/>
         <v>43739</v>
       </c>
       <c r="B127" s="20"/>
@@ -5959,9 +5859,8 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <f>EDATE(A127,1)</f>
         <v>43770</v>
       </c>
       <c r="B128" s="20"/>
@@ -5980,9 +5879,8 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <f t="shared" si="8"/>
         <v>43800</v>
       </c>
       <c r="B129" s="20"/>
@@ -6001,7 +5899,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>105</v>
       </c>
@@ -6019,9 +5917,8 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <f>EDATE(A129,1)</f>
         <v>43831</v>
       </c>
       <c r="B131" s="20"/>
@@ -6040,9 +5937,8 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <f>EDATE(A131,1)</f>
         <v>43862</v>
       </c>
       <c r="B132" s="20" t="s">
@@ -6067,9 +5963,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <f t="shared" ref="A133:A142" si="9">EDATE(A132,1)</f>
         <v>43891</v>
       </c>
       <c r="B133" s="20"/>
@@ -6088,9 +5983,8 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <f t="shared" si="9"/>
         <v>43922</v>
       </c>
       <c r="B134" s="20"/>
@@ -6109,9 +6003,8 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <f t="shared" si="9"/>
         <v>43952</v>
       </c>
       <c r="B135" s="20"/>
@@ -6130,9 +6023,8 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <f t="shared" si="9"/>
         <v>43983</v>
       </c>
       <c r="B136" s="15"/>
@@ -6151,9 +6043,8 @@
       <c r="J136" s="12"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <f t="shared" si="9"/>
         <v>44013</v>
       </c>
       <c r="B137" s="20"/>
@@ -6172,9 +6063,8 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <f t="shared" si="9"/>
         <v>44044</v>
       </c>
       <c r="B138" s="20"/>
@@ -6193,9 +6083,8 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <f t="shared" si="9"/>
         <v>44075</v>
       </c>
       <c r="B139" s="20"/>
@@ -6214,9 +6103,8 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <f t="shared" si="9"/>
         <v>44105</v>
       </c>
       <c r="B140" s="20"/>
@@ -6235,9 +6123,8 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <f t="shared" si="9"/>
         <v>44136</v>
       </c>
       <c r="B141" s="20"/>
@@ -6256,9 +6143,8 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <f t="shared" si="9"/>
         <v>44166</v>
       </c>
       <c r="B142" s="20" t="s">
@@ -6281,7 +6167,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
         <v>107</v>
       </c>
@@ -6299,9 +6185,8 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <f>EDATE(A142,1)</f>
         <v>44197</v>
       </c>
       <c r="B144" s="20"/>
@@ -6320,9 +6205,8 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <f>EDATE(A144,1)</f>
         <v>44228</v>
       </c>
       <c r="B145" s="20"/>
@@ -6341,9 +6225,8 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <f t="shared" ref="A146:A154" si="10">EDATE(A145,1)</f>
         <v>44256</v>
       </c>
       <c r="B146" s="20"/>
@@ -6362,9 +6245,8 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <f t="shared" si="10"/>
         <v>44287</v>
       </c>
       <c r="B147" s="20"/>
@@ -6383,9 +6265,8 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <f t="shared" si="10"/>
         <v>44317</v>
       </c>
       <c r="B148" s="20"/>
@@ -6404,9 +6285,8 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <f t="shared" si="10"/>
         <v>44348</v>
       </c>
       <c r="B149" s="20"/>
@@ -6425,9 +6305,8 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <f t="shared" si="10"/>
         <v>44378</v>
       </c>
       <c r="B150" s="20"/>
@@ -6446,9 +6325,8 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <f t="shared" si="10"/>
         <v>44409</v>
       </c>
       <c r="B151" s="20"/>
@@ -6467,9 +6345,8 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <f t="shared" si="10"/>
         <v>44440</v>
       </c>
       <c r="B152" s="20" t="s">
@@ -6494,9 +6371,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <f t="shared" si="10"/>
         <v>44470</v>
       </c>
       <c r="B153" s="20"/>
@@ -6515,9 +6391,8 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <f t="shared" si="10"/>
         <v>44501</v>
       </c>
       <c r="B154" s="20"/>
@@ -6536,9 +6411,8 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <f>EDATE(A154,1)</f>
         <v>44531</v>
       </c>
       <c r="B155" s="20"/>
@@ -6557,7 +6431,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="48" t="s">
         <v>108</v>
       </c>
@@ -6575,9 +6449,8 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <f>EDATE(A155,1)</f>
         <v>44562</v>
       </c>
       <c r="B157" s="20"/>
@@ -6596,9 +6469,8 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <f>EDATE(A157,1)</f>
         <v>44593</v>
       </c>
       <c r="B158" s="20"/>
@@ -6617,9 +6489,8 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
-        <f>EDATE(A158,1)</f>
         <v>44621</v>
       </c>
       <c r="B159" s="20" t="s">
@@ -6644,152 +6515,190 @@
         <v>109</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="40"/>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="40">
+        <v>44652</v>
+      </c>
       <c r="B160" s="20"/>
-      <c r="C160" s="13"/>
+      <c r="C160" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D160" s="39"/>
       <c r="E160" s="9"/>
       <c r="F160" s="20"/>
-      <c r="G160" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G160" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H160" s="39"/>
       <c r="I160" s="9"/>
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" s="40"/>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="40">
+        <v>44682</v>
+      </c>
       <c r="B161" s="20"/>
-      <c r="C161" s="13"/>
+      <c r="C161" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D161" s="39"/>
       <c r="E161" s="9"/>
       <c r="F161" s="20"/>
-      <c r="G161" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G161" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H161" s="39"/>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" s="40"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="40">
+        <v>44713</v>
+      </c>
       <c r="B162" s="20"/>
-      <c r="C162" s="13"/>
+      <c r="C162" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D162" s="39"/>
       <c r="E162" s="9"/>
       <c r="F162" s="20"/>
-      <c r="G162" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G162" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H162" s="39"/>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="40"/>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="40">
+        <v>44743</v>
+      </c>
       <c r="B163" s="20"/>
-      <c r="C163" s="13"/>
+      <c r="C163" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D163" s="39"/>
       <c r="E163" s="9"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G163" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H163" s="39"/>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="40"/>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="40">
+        <v>44774</v>
+      </c>
       <c r="B164" s="20"/>
-      <c r="C164" s="13"/>
+      <c r="C164" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D164" s="39"/>
       <c r="E164" s="9"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G164" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H164" s="39"/>
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" s="40"/>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="40">
+        <v>44805</v>
+      </c>
       <c r="B165" s="20"/>
-      <c r="C165" s="13"/>
+      <c r="C165" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D165" s="39"/>
       <c r="E165" s="9"/>
       <c r="F165" s="20"/>
-      <c r="G165" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G165" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H165" s="39"/>
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="40"/>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="40">
+        <v>44835</v>
+      </c>
       <c r="B166" s="20"/>
-      <c r="C166" s="13"/>
+      <c r="C166" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D166" s="39"/>
       <c r="E166" s="9"/>
       <c r="F166" s="20"/>
-      <c r="G166" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G166" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H166" s="39"/>
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167" s="40"/>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="40">
+        <v>44866</v>
+      </c>
       <c r="B167" s="20"/>
-      <c r="C167" s="13"/>
+      <c r="C167" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D167" s="39"/>
       <c r="E167" s="9"/>
       <c r="F167" s="20"/>
-      <c r="G167" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G167" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H167" s="39"/>
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168" s="40"/>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="40">
+        <v>44896</v>
+      </c>
       <c r="B168" s="20"/>
-      <c r="C168" s="13"/>
+      <c r="C168" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D168" s="39"/>
       <c r="E168" s="9"/>
       <c r="F168" s="20"/>
-      <c r="G168" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G168" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H168" s="39"/>
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="40"/>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="48" t="s">
+        <v>116</v>
+      </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
       <c r="D169" s="39"/>
@@ -6804,73 +6713,93 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="40"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="40">
+        <v>44927</v>
+      </c>
       <c r="B170" s="20"/>
-      <c r="C170" s="13"/>
+      <c r="C170" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D170" s="39"/>
       <c r="E170" s="9"/>
       <c r="F170" s="20"/>
-      <c r="G170" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G170" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H170" s="39"/>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="40"/>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="40">
+        <v>44958</v>
+      </c>
       <c r="B171" s="20"/>
-      <c r="C171" s="13"/>
+      <c r="C171" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D171" s="39"/>
       <c r="E171" s="9"/>
       <c r="F171" s="20"/>
-      <c r="G171" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G171" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H171" s="39"/>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="40"/>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="40">
+        <v>44986</v>
+      </c>
       <c r="B172" s="20"/>
-      <c r="C172" s="13"/>
+      <c r="C172" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D172" s="39"/>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
-      <c r="G172" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G172" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H172" s="39"/>
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="40"/>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="40">
+        <v>45017</v>
+      </c>
       <c r="B173" s="20"/>
-      <c r="C173" s="13"/>
+      <c r="C173" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D173" s="39"/>
       <c r="E173" s="9"/>
       <c r="F173" s="20"/>
-      <c r="G173" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G173" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H173" s="39"/>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174" s="40"/>
-      <c r="B174" s="20"/>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C174" s="13"/>
       <c r="D174" s="39"/>
       <c r="E174" s="9"/>
@@ -6879,13 +6808,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H174" s="39"/>
+      <c r="H174" s="39">
+        <v>1</v>
+      </c>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
-      <c r="K174" s="20"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" s="40"/>
+      <c r="K174" s="49">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="40">
+        <v>45078</v>
+      </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
       <c r="D175" s="39"/>
@@ -6900,8 +6835,10 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="40"/>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="40">
+        <v>45108</v>
+      </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
       <c r="D176" s="39"/>
@@ -6916,8 +6853,10 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="40"/>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="40">
+        <v>45139</v>
+      </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
       <c r="D177" s="39"/>
@@ -6932,8 +6871,10 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178" s="40"/>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="40">
+        <v>45170</v>
+      </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
       <c r="D178" s="39"/>
@@ -6948,8 +6889,10 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="40"/>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="40">
+        <v>45200</v>
+      </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
       <c r="D179" s="39"/>
@@ -6964,8 +6907,10 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="40"/>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="40">
+        <v>45231</v>
+      </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
       <c r="D180" s="39"/>
@@ -6980,8 +6925,10 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181" s="40"/>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="40">
+        <v>45261</v>
+      </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
       <c r="D181" s="39"/>
@@ -6996,7 +6943,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -7012,7 +6959,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -7028,21 +6975,37 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184" s="41"/>
-      <c r="B184" s="15"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="43"/>
-      <c r="E184" s="51"/>
-      <c r="F184" s="15"/>
-      <c r="G184" s="42" t="str">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="40"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H184" s="43"/>
-      <c r="I184" s="51"/>
-      <c r="J184" s="12"/>
-      <c r="K184" s="15"/>
+      <c r="H184" s="39"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="20"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="41"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="43"/>
+      <c r="E185" s="51"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H185" s="43"/>
+      <c r="I185" s="51"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7059,10 +7022,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7085,7 +7048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -7093,21 +7056,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -7120,7 +7083,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7149,7 +7112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -7175,17 +7138,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7206,7 +7169,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7233,7 +7196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7259,7 +7222,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7285,7 +7248,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7311,7 +7274,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7337,7 +7300,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7363,7 +7326,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7389,7 +7352,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7415,7 +7378,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7435,7 +7398,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7455,7 +7418,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7475,7 +7438,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7496,7 +7459,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7517,7 +7480,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7538,7 +7501,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7559,7 +7522,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7580,7 +7543,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7601,7 +7564,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7622,7 +7585,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7643,7 +7606,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7664,7 +7627,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7685,7 +7648,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7706,7 +7669,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7727,7 +7690,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7748,7 +7711,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7769,7 +7732,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7790,7 +7753,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7811,7 +7774,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7832,7 +7795,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7853,7 +7816,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7874,7 +7837,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7895,7 +7858,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7904,7 +7867,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7913,7 +7876,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7922,7 +7885,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7931,7 +7894,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7940,7 +7903,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7949,7 +7912,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7958,7 +7921,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7967,7 +7930,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7976,7 +7939,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7985,7 +7948,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7994,7 +7957,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8003,7 +7966,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8012,7 +7975,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8021,7 +7984,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8030,7 +7993,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8039,7 +8002,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8048,7 +8011,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8057,7 +8020,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8066,7 +8029,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8075,7 +8038,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8084,7 +8047,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8093,7 +8056,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8102,7 +8065,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8111,7 +8074,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8120,7 +8083,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8129,7 +8092,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8138,7 +8101,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8147,7 +8110,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8156,7 +8119,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/MONTEALEGRE, CHARLIE JR..xlsx
+++ b/REGULAR/OJT/NEW DONE/MONTEALEGRE, CHARLIE JR..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
   <si>
     <t>PERIOD</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>5/25-28/2023</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1269,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1312,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,7 +1376,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1430,7 +1436,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1502,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1565,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1663,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1716,7 +1722,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1787,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1824,7 +1830,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1905,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +2091,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2157,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,7 +2215,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2281,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2337,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2412,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2455,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2521,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2577,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2675,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2738,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2804,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K185" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K186" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3176,12 +3182,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K185"/>
+  <dimension ref="A2:K186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A167" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
+      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3354,7 +3360,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>94.420000000000016</v>
+        <v>90.420000000000016</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6818,10 +6824,10 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B175" s="20"/>
+      <c r="A175" s="40"/>
+      <c r="B175" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="C175" s="13"/>
       <c r="D175" s="39"/>
       <c r="E175" s="9"/>
@@ -6830,14 +6836,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H175" s="39"/>
+      <c r="H175" s="39">
+        <v>4</v>
+      </c>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="20"/>
+      <c r="K175" s="49" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6855,7 +6865,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6873,7 +6883,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6891,7 +6901,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6909,7 +6919,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -6927,7 +6937,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6944,7 +6954,9 @@
       <c r="K181" s="20"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="40"/>
+      <c r="A182" s="40">
+        <v>45261</v>
+      </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
       <c r="D182" s="39"/>
@@ -6992,20 +7004,36 @@
       <c r="K184" s="20"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="41"/>
-      <c r="B185" s="15"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="43"/>
-      <c r="E185" s="51"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="42" t="str">
+      <c r="A185" s="40"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H185" s="43"/>
-      <c r="I185" s="51"/>
-      <c r="J185" s="12"/>
-      <c r="K185" s="15"/>
+      <c r="H185" s="39"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="20"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="41"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="42"/>
+      <c r="D186" s="43"/>
+      <c r="E186" s="51"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H186" s="43"/>
+      <c r="I186" s="51"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
